--- a/Task1/Property Median/Formatted Dataset/ACT Median Price 2018 May.xlsx
+++ b/Task1/Property Median/Formatted Dataset/ACT Median Price 2018 May.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\Property Analysis BI Developer Standard Sprint Instruction - Part 1\Task1\Property Median\Formatted Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B782DDB-685A-4272-8B02-CBE3E10C9FAA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5920BF8-0F5B-4BF1-BB48-4ADA3106DE98}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Act Property Prices - May 2018" sheetId="1" r:id="rId1"/>
@@ -26,35 +26,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
-  <si>
-    <t>Median Price</t>
-  </si>
-  <si>
-    <t>Average Price</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Level</t>
   </si>
   <si>
-    <t>Houses</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
     <t>District</t>
   </si>
   <si>
-    <t>Median</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Turnover</t>
-  </si>
-  <si>
     <t>Belconnen</t>
   </si>
   <si>
@@ -79,19 +58,55 @@
     <t>Weston Creek</t>
   </si>
   <si>
-    <t>Houses4</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Residential</t>
-  </si>
-  <si>
     <t>Change Monthly%</t>
   </si>
   <si>
     <t>Change tty3%</t>
+  </si>
+  <si>
+    <t>Houses Median Price</t>
+  </si>
+  <si>
+    <t>Houses Average Price</t>
+  </si>
+  <si>
+    <t>Houses Turnover</t>
+  </si>
+  <si>
+    <t>Units Median Price</t>
+  </si>
+  <si>
+    <t>Unit Average Price</t>
+  </si>
+  <si>
+    <t>Unit Turnover</t>
+  </si>
+  <si>
+    <t>House Median Price</t>
+  </si>
+  <si>
+    <t>House Average Price</t>
+  </si>
+  <si>
+    <t>House Turnover</t>
+  </si>
+  <si>
+    <t>Units Average Price</t>
+  </si>
+  <si>
+    <t>Units Turnover</t>
+  </si>
+  <si>
+    <t>Total Residential Median Price</t>
+  </si>
+  <si>
+    <t>Total Residential Average Price</t>
+  </si>
+  <si>
+    <t>Total Residential Turnover</t>
+  </si>
+  <si>
+    <t>Property Type</t>
   </si>
 </sst>
 </file>
@@ -102,13 +117,19 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -131,15 +152,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,178 +438,225 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1">
+        <v>680000</v>
+      </c>
+      <c r="C3" s="1">
+        <v>-2.7</v>
+      </c>
+      <c r="D3" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="3">
+        <v>773992</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B5" s="3">
+        <v>363</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="D5" s="2">
+        <v>-11.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1">
+        <v>436950</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>680000</v>
-      </c>
-      <c r="D3" s="1">
-        <v>-2.7</v>
-      </c>
-      <c r="E3" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3">
-        <v>773992</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="E4" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3">
-        <v>363</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="E5" s="2">
-        <v>-11.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>0</v>
+      <c r="B7" s="1">
+        <v>459769</v>
       </c>
       <c r="C7" s="1">
-        <v>436950</v>
-      </c>
-      <c r="D7" s="1">
-        <v>5.2</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>1</v>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D7" s="2">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1">
+        <v>588</v>
       </c>
       <c r="C8" s="1">
-        <v>459769</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E8" s="2">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>-9.3000000000000007</v>
+      </c>
+      <c r="D8" s="2">
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1">
+        <v>505900</v>
       </c>
       <c r="C9" s="1">
-        <v>588</v>
-      </c>
-      <c r="D9" s="1">
-        <v>-9.3000000000000007</v>
-      </c>
-      <c r="E9" s="2">
-        <v>24.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>0</v>
+        <v>1.2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>-3.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1">
+        <v>579709</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="D10" s="2">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="1">
+        <v>951</v>
       </c>
       <c r="C11" s="1">
-        <v>505900</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="E11" s="2">
-        <v>-3.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1">
-        <v>579709</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2.8</v>
-      </c>
-      <c r="E12" s="2">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="1">
-        <v>951</v>
-      </c>
-      <c r="D13" s="1">
         <v>-5.7</v>
       </c>
-      <c r="E13" s="2">
+      <c r="D11" s="2">
         <v>7.6</v>
       </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -601,242 +666,231 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD6C3E1-9CBA-4DCE-AC1F-1294D1F80019}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4">
+        <v>620500</v>
+      </c>
+      <c r="C2" s="4">
+        <v>644250</v>
+      </c>
+      <c r="D2" s="4">
+        <v>100</v>
+      </c>
+      <c r="E2" s="4">
+        <v>406000</v>
+      </c>
+      <c r="F2" s="4">
+        <v>433065</v>
+      </c>
+      <c r="G2" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4">
+        <v>655000</v>
+      </c>
+      <c r="C3" s="4">
+        <v>677486</v>
+      </c>
+      <c r="D3" s="4">
+        <v>72</v>
+      </c>
+      <c r="E3" s="4">
+        <v>404000</v>
+      </c>
+      <c r="F3" s="4">
+        <v>411092</v>
+      </c>
+      <c r="G3" s="4">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4">
+        <v>758000</v>
+      </c>
+      <c r="C4" s="4">
+        <v>770140</v>
+      </c>
+      <c r="D4" s="4">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4">
+        <v>435000</v>
+      </c>
+      <c r="F4" s="4">
+        <v>413890</v>
+      </c>
+      <c r="G4" s="4">
         <v>5</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="F1" s="4" t="s">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4">
+        <v>975000</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1043949</v>
+      </c>
+      <c r="D5" s="4">
+        <v>39</v>
+      </c>
+      <c r="E5" s="4">
+        <v>468000</v>
+      </c>
+      <c r="F5" s="4">
+        <v>486902</v>
+      </c>
+      <c r="G5" s="4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1400000</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1594674</v>
+      </c>
+      <c r="D6" s="4">
+        <v>23</v>
+      </c>
+      <c r="E6" s="4">
+        <v>480000</v>
+      </c>
+      <c r="F6" s="4">
+        <v>525400</v>
+      </c>
+      <c r="G6" s="4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B7" s="4">
+        <v>580000</v>
+      </c>
+      <c r="C7" s="4">
+        <v>616998</v>
+      </c>
+      <c r="D7" s="4">
+        <v>72</v>
+      </c>
+      <c r="E7" s="4">
+        <v>415000</v>
+      </c>
+      <c r="F7" s="4">
+        <v>437169</v>
+      </c>
+      <c r="G7" s="4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5">
-        <v>620500</v>
-      </c>
-      <c r="C4" s="5">
-        <v>644250</v>
-      </c>
-      <c r="D4">
-        <v>100</v>
-      </c>
-      <c r="F4" s="5">
-        <v>406000</v>
-      </c>
-      <c r="G4" s="5">
-        <v>433065</v>
-      </c>
-      <c r="H4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="5">
-        <v>655000</v>
-      </c>
-      <c r="C5" s="5">
-        <v>677486</v>
-      </c>
-      <c r="D5">
-        <v>72</v>
-      </c>
-      <c r="F5" s="5">
-        <v>404000</v>
-      </c>
-      <c r="G5" s="5">
-        <v>411092</v>
-      </c>
-      <c r="H5">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="5">
-        <v>758000</v>
-      </c>
-      <c r="C6" s="5">
-        <v>770140</v>
-      </c>
-      <c r="E6">
-        <v>8</v>
-      </c>
-      <c r="F6" s="5">
-        <v>435000</v>
-      </c>
-      <c r="G6" s="5">
-        <v>413890</v>
-      </c>
-      <c r="H6">
+      <c r="B8" s="4">
+        <v>658500</v>
+      </c>
+      <c r="C8" s="4">
+        <v>702231</v>
+      </c>
+      <c r="D8" s="4">
+        <v>26</v>
+      </c>
+      <c r="E8" s="4">
+        <v>568500</v>
+      </c>
+      <c r="F8" s="4">
+        <v>511200</v>
+      </c>
+      <c r="G8" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="5">
-        <v>975000</v>
-      </c>
-      <c r="C7" s="5">
-        <v>1043949</v>
-      </c>
-      <c r="E7">
-        <v>39</v>
-      </c>
-      <c r="F7" s="5">
-        <v>468000</v>
-      </c>
-      <c r="G7" s="5">
-        <v>486902</v>
-      </c>
-      <c r="H7">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="5">
-        <v>1400000</v>
-      </c>
-      <c r="C8" s="5">
-        <v>1594674</v>
-      </c>
-      <c r="E8">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4">
+        <v>840000</v>
+      </c>
+      <c r="C9" s="4">
+        <v>935674</v>
+      </c>
+      <c r="D9" s="4">
         <v>23</v>
       </c>
-      <c r="F8" s="5">
-        <v>480000</v>
-      </c>
-      <c r="G8" s="5">
-        <v>525400</v>
-      </c>
-      <c r="H8">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="5">
-        <v>580000</v>
-      </c>
-      <c r="C9" s="5">
-        <v>616998</v>
-      </c>
-      <c r="D9">
-        <v>72</v>
-      </c>
-      <c r="F9" s="5">
-        <v>415000</v>
-      </c>
-      <c r="G9" s="5">
-        <v>437169</v>
-      </c>
-      <c r="H9">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="5">
-        <v>658500</v>
-      </c>
-      <c r="C10" s="5">
-        <v>702231</v>
-      </c>
-      <c r="E10">
-        <v>26</v>
-      </c>
-      <c r="F10" s="5">
-        <v>568500</v>
-      </c>
-      <c r="G10" s="5">
-        <v>511200</v>
-      </c>
-      <c r="H10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="5">
-        <v>840000</v>
-      </c>
-      <c r="C11" s="5">
-        <v>935674</v>
-      </c>
-      <c r="D11">
-        <v>23</v>
-      </c>
-      <c r="F11" s="5">
+      <c r="E9" s="4">
         <v>409750</v>
       </c>
-      <c r="G11" s="5">
+      <c r="F9" s="4">
         <v>459138</v>
       </c>
-      <c r="H11">
+      <c r="G9" s="4">
         <v>34</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="F1:H1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>